--- a/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods_TRIPHAMMER_20250307.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods_TRIPHAMMER_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,6 +880,573 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>8457368</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Oil - Corn</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>58.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1026184</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Roasted Red Pepper (Strips)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11072</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vegan Chicken Tenders</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>175.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5514021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bacon (Pre-Cooked)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>532.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7206874</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Can - Tomato - Crushed</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8255796</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tuna White Chunk (Pouch)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>290.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1027629</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cheddar - (Sliced)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>418.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1035842</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Feta - Pail</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3036746</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Smoked Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>76.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>611.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>6364494</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yogurt - Greek (Bulk)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3275539</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sauerkraut</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>37082</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tortellini - Cheese</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>44264</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Shrimp Peeled Tail Off (61/70)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>6318732</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Apple (Sliced)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>58.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>58.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>88115</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cucumber - (english)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>5365192</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Garlic - Fresh (Peeled)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>88043</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Grape - Fresh Seedless (Red)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>100.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>89164</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Herb - Parsley (Fresh Curly)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>6136985</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Onion - Yellow Fresh</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>89165</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Scallion - Fresh</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>53.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>88070</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pineapple - Fresh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
